--- a/La chouette.xlsx
+++ b/La chouette.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projets_classrooms\projet4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213281FE-7358-40A0-B959-4C335046D6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3E0B86-9BA5-453B-8C06-EE667F87A813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="172">
   <si>
     <t>Catégorie</t>
   </si>
@@ -1766,6 +1766,21 @@
   </si>
   <si>
     <t>Insérer code analytique et seo</t>
+  </si>
+  <si>
+    <t>https://www.l-agenceweb.com/cache-navigateur-seo/</t>
+  </si>
+  <si>
+    <t>https://www.pixelcrea.com/blog/semantique-seo-page/</t>
+  </si>
+  <si>
+    <t>Sémantique SEO : la structure d'une page web</t>
+  </si>
+  <si>
+    <t>https://gtmetrix.com/reports/nawak34.github.io/QGtf4lIQ/#video</t>
+  </si>
+  <si>
+    <t>https://fr.semrush.com/blog/url-canonique-guide-2020-balises-canonical/?kw=&amp;cmp=FR_SRCH_DSA_Blog_Core_BU_FR&amp;label=dsa_pagefeed&amp;Network=g&amp;Device=c&amp;utm_content=486541999120&amp;kwid=dsa-1100351999404&amp;cmpid=11849486850&amp;agpid=113156847817&amp;BU=Core&amp;extid=152584053938&amp;adpos=&amp;gclid=Cj0KCQjwssyJBhDXARIsAK98ITQ2RUGXW2gbEVDbcrUjBeyl_8kC5wFur56a05RSl05-Gp9W8WYZj_YaAgLdEALw_wcB</t>
   </si>
 </sst>
 </file>
@@ -2230,43 +2245,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{CC00D98E-F00B-41A9-99C7-BFC240529EEE}"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <b val="0"/>
@@ -2302,6 +2281,60 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4527,13 +4560,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4E80DCC7-F100-4372-8A24-127336D81AC3}" name="Tableau2" displayName="Tableau2" ref="A1:G21" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4E80DCC7-F100-4372-8A24-127336D81AC3}" name="Tableau2" displayName="Tableau2" ref="A1:G21" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17">
   <autoFilter ref="A1:G21" xr:uid="{4E80DCC7-F100-4372-8A24-127336D81AC3}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7651B9F4-5D1B-491F-9D06-8F7D40DBCE35}" name="Catégorie" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{BB3C842D-B90A-4B15-8AE2-F2C2C771A7C1}" name="Problème identifié" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{72E1F59A-7C52-436D-B3E2-9ABF09C2A8BF}" name="Explication du problème" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{024829AE-267C-41CC-B2B0-04BF5A4A7322}" name="Bonne pratique à adopter" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{7651B9F4-5D1B-491F-9D06-8F7D40DBCE35}" name="Catégorie" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{BB3C842D-B90A-4B15-8AE2-F2C2C771A7C1}" name="Problème identifié" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{72E1F59A-7C52-436D-B3E2-9ABF09C2A8BF}" name="Explication du problème" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{024829AE-267C-41CC-B2B0-04BF5A4A7322}" name="Bonne pratique à adopter" dataDxfId="13"/>
     <tableColumn id="5" xr3:uid="{9E67441C-9738-4C6F-AB53-E9C1DB71E654}" name="Action recommandée"/>
     <tableColumn id="6" xr3:uid="{EF5A636B-EE40-49A6-A40B-AA1045E7E314}" name="Référence"/>
     <tableColumn id="7" xr3:uid="{E8272558-2D09-4761-B255-84AC0BE9637F}" name="Colonne1"/>
@@ -4543,25 +4576,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{19D63FCE-1F73-4AA6-A654-8B1C55CA6538}" name="Tableau1" displayName="Tableau1" ref="A1:F41" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{19D63FCE-1F73-4AA6-A654-8B1C55CA6538}" name="Tableau1" displayName="Tableau1" ref="A1:F41" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6765B98E-A599-4745-B90F-7DF2716C8EC6}" name="Catégorie" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{B295A182-FBEE-40F7-8D6A-6877CFC70D3B}" name="Problème identifié" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{2B6250E8-2653-44DC-9166-F85CF95BCABA}" name="Explication du problème" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{0B13FAAD-A12C-43A6-85DD-BDA4381DA87F}" name="Bonne pratique à adopter" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{6B1C6150-03C9-46C1-B80F-8817872C0197}" name="Action recommandée" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{80E29B63-CF02-4524-A4A5-4EA61BA67E64}" name="Référence" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{6765B98E-A599-4745-B90F-7DF2716C8EC6}" name="Catégorie" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{B295A182-FBEE-40F7-8D6A-6877CFC70D3B}" name="Problème identifié" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{2B6250E8-2653-44DC-9166-F85CF95BCABA}" name="Explication du problème" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{0B13FAAD-A12C-43A6-85DD-BDA4381DA87F}" name="Bonne pratique à adopter" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{6B1C6150-03C9-46C1-B80F-8817872C0197}" name="Action recommandée" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{80E29B63-CF02-4524-A4A5-4EA61BA67E64}" name="Référence" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76FA9334-1B29-46E1-8F52-3572F04FBE58}" name="Tableau4" displayName="Tableau4" ref="A3:B14" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
-  <autoFilter ref="A3:B14" xr:uid="{76FA9334-1B29-46E1-8F52-3572F04FBE58}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9FD88FA0-C8C1-4F1F-B42F-6A030983F5DD}" name="Mes 10 actions d'optimisation ont étés les suivantes :" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{3B2A1ECC-CDEC-4360-A457-5C3E8B77D1E0}" name="actions" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76FA9334-1B29-46E1-8F52-3572F04FBE58}" name="Tableau4" displayName="Tableau4" ref="A3:C14" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A3:C14" xr:uid="{76FA9334-1B29-46E1-8F52-3572F04FBE58}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9FD88FA0-C8C1-4F1F-B42F-6A030983F5DD}" name="Mes 10 actions d'optimisation ont étés les suivantes :" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{3B2A1ECC-CDEC-4360-A457-5C3E8B77D1E0}" name="actions" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{CF183673-C9C6-4667-A95C-6DAA3FED8A9F}" name="Colonne1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6924,104 +6958,128 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD81C4D3-3AE1-41D9-83C3-31C0A4451848}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.109375" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="31" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75">
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="30" t="s">
         <v>150</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="39" t="s">
         <v>155</v>
       </c>
       <c r="B4" s="39" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="39" t="s">
         <v>151</v>
       </c>
       <c r="B5" s="39"/>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="39" t="s">
         <v>152</v>
       </c>
       <c r="B6" s="39"/>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="39"/>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="39"/>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="39" t="s">
         <v>154</v>
       </c>
       <c r="B8" s="39"/>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="39"/>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="39" t="s">
         <v>156</v>
       </c>
       <c r="B9" s="39"/>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="39"/>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="39" t="s">
         <v>157</v>
       </c>
       <c r="B10" s="39"/>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="39"/>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="39" t="s">
         <v>159</v>
       </c>
       <c r="B11" s="39" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="39"/>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="39" t="s">
         <v>160</v>
       </c>
       <c r="B12" s="39" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="39" t="s">
         <v>161</v>
       </c>
       <c r="B13" s="39" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="39"/>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="39" t="s">
         <v>166</v>
       </c>
       <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/La chouette.xlsx
+++ b/La chouette.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projets_classrooms\projet4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3E0B86-9BA5-453B-8C06-EE667F87A813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8ADE92-868D-497D-AD48-DE224ADDE283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Accueil" sheetId="7" r:id="rId1"/>
-    <sheet name="Diag" sheetId="2" r:id="rId2"/>
-    <sheet name="Crawlabilité " sheetId="5" r:id="rId3"/>
-    <sheet name="Diagnostic" sheetId="1" r:id="rId4"/>
-    <sheet name="Feuil1" sheetId="8" r:id="rId5"/>
+    <sheet name="Diag" sheetId="2" r:id="rId1"/>
+    <sheet name="Crawlabilité " sheetId="5" r:id="rId2"/>
+    <sheet name="Diagnostic" sheetId="1" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="165">
   <si>
     <t>Catégorie</t>
   </si>
@@ -984,7 +983,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Décidez si l'installation d'un CDN</t>
+      <t xml:space="preserve">Décidez si un CMS </t>
     </r>
     <r>
       <rPr>
@@ -992,32 +991,6 @@
         <color rgb="FF111111"/>
         <rFont val="Ubuntu1"/>
       </rPr>
-      <t xml:space="preserve"> est une priorité pour le site.</t>
-    </r>
-  </si>
-  <si>
-    <t>Les CDN sont utilisés pour améliorer l'expérience globale de l'utilisateur et fournir un réseau plus efficace.</t>
-  </si>
-  <si>
-    <t>S’appuyer sur un « Content Delivery Network ».</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Décidez si un CMS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Ubuntu1"/>
-      </rPr>
       <t>est adapté : « entre un site custom ou un CMS »</t>
     </r>
   </si>
@@ -1026,161 +999,6 @@
   </si>
   <si>
     <t>Choisir un thème (et un « builder ») rapide. Installer les plugins nécessaires.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Choisir</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Ubuntu1"/>
-      </rPr>
-      <t xml:space="preserve"> la bonne </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>technologie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Ubuntu1"/>
-      </rPr>
-      <t xml:space="preserve"> pour le site</t>
-    </r>
-  </si>
-  <si>
-    <t>Le site a peu de logique métier et a un but marketing (acquisition de clients)</t>
-  </si>
-  <si>
-    <t>Dans ce cas, c’est simple, optez pour un site classique et non pas un site basé sur un framework JavaScript. Codé avec un rendu classique en HTML/CSS</t>
-  </si>
-  <si>
-    <r>
-      <t>Décidez entre</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> « client-side »</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Ubuntu1"/>
-      </rPr>
-      <t xml:space="preserve"> et </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Ubuntu1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>server-side »</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Ubuntu1"/>
-      </rPr>
-      <t xml:space="preserve"> rendering.</t>
-    </r>
-  </si>
-  <si>
-    <t>Le site a peu de logique métier et a un but marketing (acquisition de clients) et il est déjà diffusé. Le pre-rendering est un processus qui permet de précharger tous les éléments d’une page, afin qu'ils soient crawlés et indexés.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Ubuntu"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Installer un prérendu, ou </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Ubuntu"/>
-        <family val="2"/>
-      </rPr>
-      <t>« pre-rendering ». Attention au cloaking ! Ou changer coté «</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Ubuntu"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Ubuntu"/>
-        <family val="2"/>
-      </rPr>
-      <t>server-side »</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Ubuntu"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> rendering.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1574,9 +1392,6 @@
     Vous ne souhaitez pas indexer la plupart des fichiers multimédias (vidéo, image) ou des pages d'actualités. Les sitemaps peuvent aider Google à identifier et à comprendre des fichiers vidéo ou image, ainsi que des articles d'actualités sur votre site. Si vous n'avez pas besoin que vos pages figurent dans les résultats de recherche d'images, de vidéos ou d'actualités, l'envoi d'un sitemap n'est pas indispensable.</t>
   </si>
   <si>
-    <t>Structured data</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1594,31 +1409,6 @@
       </rPr>
       <t xml:space="preserve"> inexistant</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Ubuntu1"/>
-      </rPr>
-      <t>Données structurées</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Ubuntu1"/>
-      </rPr>
-      <t xml:space="preserve">
-Aucune donnée structurée sur cette page
-En ajoutant des données structurées à une page, Google comprendra plus facilement le contenu. Cela permet également d'augmenter la visibilité dans les SERP.</t>
-    </r>
-  </si>
-  <si>
-    <t>À propos des données structurées
-Les données structurées vous permettent d'afficher des notes, des prix, des fils d'Ariane et d'autres éléments visuels qui vous aident à vous démarquer dans les résultats de recherche.</t>
   </si>
   <si>
     <r>
@@ -1685,9 +1475,6 @@
     </r>
   </si>
   <si>
-    <t>https://gtmetrix.com/reports/afellat.free.fr/w7VDtFZm/</t>
-  </si>
-  <si>
     <t>Colonne1</t>
   </si>
   <si>
@@ -1781,6 +1568,24 @@
   </si>
   <si>
     <t>https://fr.semrush.com/blog/url-canonique-guide-2020-balises-canonical/?kw=&amp;cmp=FR_SRCH_DSA_Blog_Core_BU_FR&amp;label=dsa_pagefeed&amp;Network=g&amp;Device=c&amp;utm_content=486541999120&amp;kwid=dsa-1100351999404&amp;cmpid=11849486850&amp;agpid=113156847817&amp;BU=Core&amp;extid=152584053938&amp;adpos=&amp;gclid=Cj0KCQjwssyJBhDXARIsAK98ITQ2RUGXW2gbEVDbcrUjBeyl_8kC5wFur56a05RSl05-Gp9W8WYZj_YaAgLdEALw_wcB</t>
+  </si>
+  <si>
+    <t>https://www.seomix.fr/guide-htaccess-performances-et-temps-de-chargement/</t>
+  </si>
+  <si>
+    <t>https://www.journalducm.com/balise-meta-description/</t>
+  </si>
+  <si>
+    <t>https://www.antevenio.com/fr/open-graph-et-seo-la-cle-pour-viraliser-votre-contenu/</t>
+  </si>
+  <si>
+    <t>https://hugo.maugey.fr/developpeur-fullstack/minification-site-web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimiser les urls </t>
+  </si>
+  <si>
+    <t>https://www.e-monsite.com/blog/referencement-seo/optimiser-url-seo.html</t>
   </si>
 </sst>
 </file>
@@ -2108,7 +1913,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2129,12 +1934,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2189,9 +1988,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2694,1806 +2490,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle : coins arrondis 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C399475-D829-4B6A-AA2F-45BEE437D18A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1257300" y="352425"/>
-          <a:ext cx="6467475" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2000" b="1"/>
-            <a:t>Mise en Ligne du Site</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle : coins arrondis 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9E1FD8-0FAD-41F9-A875-03D33FF83619}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4095750" y="3390900"/>
-          <a:ext cx="7810500" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2000" b="1"/>
-            <a:t>Qu’est-ce qui affecte la crawlabilité et l’indexabilité ?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:endParaRPr lang="fr-FR" sz="2000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle : coins arrondis 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA23FB5-E990-4C10-9F18-909DD252483C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11896725" y="1571625"/>
-          <a:ext cx="6467475" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Inscription Search Console</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle : coins arrondis 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DFC4A57-122C-4C6A-91D0-40C49A8BA825}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11753850" y="38100"/>
-          <a:ext cx="5172075" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200" b="1"/>
-            <a:t>Insertion tag</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>&lt;meta name="google-site-verification" content="2SJSyyb5J9SZctEBqJb4bF1ji_swB6U-dqY3Xw7euJc" /&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle : coins arrondis 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0993296C-13C6-43B4-8A9C-E39DD3413A95}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3286124" y="1590675"/>
-          <a:ext cx="2209800" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>La crawlabilité</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>819149</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle : coins arrondis 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2AF257-35DF-4B66-8787-1DD73FB84002}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8743949" y="1495425"/>
-          <a:ext cx="2209800" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>L'indexabilité</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Flèche : bas 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2546B3-D86E-4F1E-8837-6DD45B30EAF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4219575" y="1143000"/>
-          <a:ext cx="428625" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" b="1"/>
-            <a:t>?</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>876299</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>981074</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle : coins arrondis 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3F1886-1840-480C-B9DB-475115813860}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4838699" y="1152526"/>
-          <a:ext cx="8029575" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t>Ces deux termes se réfèrent à la capacité d’un moteur de recherche d’accéder à des pages web et de les indexer.</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>790574</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle : coins arrondis 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C38EF73B-2A23-4FB5-AE0E-F1FD51BFAA3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2047875" y="2543175"/>
-          <a:ext cx="4686299" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" b="1"/>
-            <a:t>La crawlabilité </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" b="0"/>
-            <a:t>est à la capacité d’un moteur de recherche d’accéder au contenu d’une page et de le crawler.</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle : coins arrondis 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50C52A9-92D7-473B-B8C2-9EE25E0EE6A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7505700" y="2486025"/>
-          <a:ext cx="4686299" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" b="1"/>
-            <a:t>L’indexabilité</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t>, quant à elle, se réfère à la capacité d’un moteur de recherche d’analyser et d’ajouter une page à son index.</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle : coins arrondis 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7259314F-C944-443E-A4B0-74B90C21F94B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6400800" y="4286250"/>
-          <a:ext cx="3400425" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" b="1"/>
-            <a:t>1. La structure du site</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle : coins arrondis 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BAE9F2-64B3-4290-B2DF-361B29417295}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6438900" y="5162550"/>
-          <a:ext cx="3400425" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" b="1"/>
-            <a:t>2. La structure des liens internes</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle : coins arrondis 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B586A19-F3B3-4258-9AA9-5E848D705E61}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6438900" y="6010275"/>
-          <a:ext cx="3400425" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" b="1"/>
-            <a:t>3. Les boucles de redirection</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle : coins arrondis 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D041A617-0814-4F72-80B9-E6AD09ADB5E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6467475" y="6838950"/>
-          <a:ext cx="3400425" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" b="1"/>
-            <a:t>4. Les erreurs de serveur</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle : coins arrondis 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7190099E-FB0E-4F99-AB75-06BDD886E8ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6477000" y="7677150"/>
-          <a:ext cx="3400425" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" b="1"/>
-            <a:t>5. Les scripts non pris en charge et d’autres facteurs</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectangle : coins arrondis 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D031C25-168A-4FF2-A936-28C1C42BBD3C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6505575" y="8505825"/>
-          <a:ext cx="3400425" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" b="1"/>
-            <a:t>6. L’accès bloqué aux robots d’indexation</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle : coins arrondis 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DD1564-0ABB-4F27-B07C-054C55BE795F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6505575" y="9353550"/>
-          <a:ext cx="3400425" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>.........</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle : coins arrondis 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05C5366-2042-4509-AC2F-C654545C5028}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4162424" y="10267950"/>
-          <a:ext cx="8201026" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2000" b="1"/>
-            <a:t>Comment rendre votre site web plus facile à crawler et à indexer ?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:endParaRPr lang="fr-FR" sz="2000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectangle : coins arrondis 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC3D98F-FFA5-43F5-B68C-6D8F39D26A17}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6619875" y="11125200"/>
-          <a:ext cx="3400425" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" b="1"/>
-            <a:t>1. Soumettez sitemap à Google</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectangle : coins arrondis 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{743E9F11-2483-4E2A-8867-BF4950AD788C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6657975" y="12001500"/>
-          <a:ext cx="3400425" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" b="1"/>
-            <a:t>2. Renforcez votre maillage interne</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rectangle : coins arrondis 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4505CC-0CE9-4170-9511-0CCF44EC5FB7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6696075" y="12849225"/>
-          <a:ext cx="3400425" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" b="1"/>
-            <a:t>3. Faites des mises à jour régulières et ajoutez du nouveau contenu</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle : coins arrondis 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB89ED64-D490-4E53-B569-CE487111C0B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6686550" y="13677900"/>
-          <a:ext cx="3400425" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" b="1"/>
-            <a:t>4. Évitez le contenu dupliqué</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectangle : coins arrondis 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8CA1637-0F9E-4B6F-8BC1-BDC791AC8C0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6696075" y="14516100"/>
-          <a:ext cx="3400425" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" b="1"/>
-            <a:t>5. Accélérez le temps de chargement de votre page</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Rectangle : coins arrondis 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8097208B-FCC6-485E-9F43-1AF422D768F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6724650" y="15344775"/>
-          <a:ext cx="3400425" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" b="1"/>
-            <a:t>6. L’accès bloqué aux robots d’indexation</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rectangle : coins arrondis 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5558E5FC-D662-43CA-A909-FD2A7FE6F526}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6724650" y="16192500"/>
-          <a:ext cx="3400425" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>.........</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4576,7 +2572,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{19D63FCE-1F73-4AA6-A654-8B1C55CA6538}" name="Tableau1" displayName="Tableau1" ref="A1:F41" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{19D63FCE-1F73-4AA6-A654-8B1C55CA6538}" name="Tableau1" displayName="Tableau1" ref="A1:F14" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6765B98E-A599-4745-B90F-7DF2716C8EC6}" name="Catégorie" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{B295A182-FBEE-40F7-8D6A-6877CFC70D3B}" name="Problème identifié" dataDxfId="9"/>
@@ -4590,8 +2586,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76FA9334-1B29-46E1-8F52-3572F04FBE58}" name="Tableau4" displayName="Tableau4" ref="A3:C14" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A3:C14" xr:uid="{76FA9334-1B29-46E1-8F52-3572F04FBE58}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76FA9334-1B29-46E1-8F52-3572F04FBE58}" name="Tableau4" displayName="Tableau4" ref="A3:C15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A3:C15" xr:uid="{76FA9334-1B29-46E1-8F52-3572F04FBE58}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{9FD88FA0-C8C1-4F1F-B42F-6A030983F5DD}" name="Mes 10 actions d'optimisation ont étés les suivantes :" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{3B2A1ECC-CDEC-4360-A457-5C3E8B77D1E0}" name="actions" dataDxfId="1"/>
@@ -4859,32 +2855,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1505F7B0-9ED8-497C-81AE-E3D932D9B915}">
-  <dimension ref="L77"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="77" spans="12:12">
-      <c r="L77" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB75376-1288-4D31-B78F-1960835E0366}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4899,323 +2874,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>144</v>
+      <c r="G1" s="18" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="62.25" thickTop="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="216.75" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:7" ht="216.75" customHeight="1">
+      <c r="A7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B7" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="195">
+      <c r="A8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="78.75">
+      <c r="A9" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="120">
+      <c r="A10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45">
+      <c r="A11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30.75">
+      <c r="A12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="137.25" customHeight="1">
+      <c r="A13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C13" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="210">
+      <c r="A14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" ht="255.75">
+      <c r="A15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="195">
-      <c r="A4" s="27" t="s">
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" ht="75.75">
+      <c r="A16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.25">
+      <c r="A17" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" ht="46.5">
+      <c r="A18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="182.25">
+      <c r="A19" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="60">
+      <c r="A20" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="78.75">
-      <c r="A5" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="120">
-      <c r="A6" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45">
-      <c r="A7" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30.75">
-      <c r="A8" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="137.25" customHeight="1">
-      <c r="A9" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="137.25" customHeight="1">
-      <c r="A10" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="210">
-      <c r="A11" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" ht="255.75">
-      <c r="A12" s="27" t="s">
+      <c r="B20" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="75">
+      <c r="A21" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" ht="75.75">
-      <c r="A13" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20.25">
-      <c r="A14" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" ht="46.5">
-      <c r="A15" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="182.25">
-      <c r="A16" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45">
-      <c r="A17" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="60">
-      <c r="A18" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="25" t="s">
+      <c r="B21" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C21" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D21" s="23" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="60">
-      <c r="A19" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="75">
-      <c r="A20" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="75">
-      <c r="A21" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A16" xr:uid="{748BCFCD-42EF-4CD1-BB52-7435D3FCB63A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A19" xr:uid="{748BCFCD-42EF-4CD1-BB52-7435D3FCB63A}">
       <formula1>"  SEO, ACCESSIBILITE,SEO &amp; ACCESSIBILITE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5227,12 +3182,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38A6FF8-3841-4440-8082-B0C06A228280}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5244,260 +3199,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="35" t="s">
-        <v>77</v>
+      <c r="A1" s="32" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75">
-      <c r="B7" s="30" t="s">
-        <v>82</v>
+      <c r="B7" s="27" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75">
-      <c r="C8" s="31" t="s">
-        <v>83</v>
+      <c r="C8" s="28" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75">
-      <c r="C9" s="31" t="s">
-        <v>84</v>
+      <c r="C9" s="28" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75">
-      <c r="C10" s="31" t="s">
-        <v>85</v>
+      <c r="C10" s="28" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="23.25">
-      <c r="A13" s="32" t="s">
-        <v>86</v>
+      <c r="A13" s="29" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="B15" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>91</v>
+      <c r="B15" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="33" t="s">
-        <v>88</v>
+      <c r="B16" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="23.25">
-      <c r="A18" s="32" t="s">
-        <v>92</v>
+      <c r="A18" s="29" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25">
-      <c r="A19" s="34" t="s">
-        <v>93</v>
+      <c r="A19" s="31" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75">
       <c r="B20" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25">
-      <c r="A21" s="34" t="s">
-        <v>95</v>
+      <c r="A21" s="31" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75">
+      <c r="A24" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75">
+      <c r="A26" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75">
+      <c r="A27" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="23.25">
+      <c r="A31" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="23.25">
+      <c r="A32" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75">
+      <c r="A33" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="B23" s="35" t="s">
+    <row r="34" spans="1:3" ht="15.75">
+      <c r="A34" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="36" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="15.75">
+      <c r="A35" s="14" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75">
-      <c r="A24" s="35" t="s">
+      <c r="C35" s="32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75">
-      <c r="A26" s="16" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="32" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75">
-      <c r="A27" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="23.25">
-      <c r="A31" s="37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="23.25">
-      <c r="A32" s="37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75">
-      <c r="A33" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75">
-      <c r="A34" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75">
-      <c r="A35" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="35" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="36" t="s">
-        <v>110</v>
+      <c r="A38" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="36" t="s">
-        <v>111</v>
+      <c r="A40" s="33" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="35" t="s">
-        <v>112</v>
+      <c r="A42" s="32" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="36" t="s">
-        <v>113</v>
+      <c r="A44" s="33" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="36" t="s">
-        <v>114</v>
+      <c r="A46" s="33" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17.25">
+      <c r="A51" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75">
+      <c r="A52" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="23.25">
+      <c r="A55" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="B56" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="B81" s="36"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="B82" s="38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="B83" s="36"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="B84" s="38" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="36" t="s">
+    <row r="85" spans="1:2" ht="17.25">
+      <c r="A85" s="35" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17.25">
-      <c r="A51" s="38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75">
-      <c r="A52" s="35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="B53" s="35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="23.25">
-      <c r="A55" s="37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="B56" s="33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="B81" s="39"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="B82" s="41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="B83" s="39"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="B84" s="41" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="17.25">
-      <c r="A85" s="38" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5515,18 +3470,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z974"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="25.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="67.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="67.6640625" style="14" customWidth="1"/>
     <col min="3" max="3" width="33.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.44140625" style="1" customWidth="1"/>
@@ -5579,7 +3534,7 @@
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -5588,7 +3543,7 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5596,17 +3551,17 @@
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5614,10 +3569,10 @@
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -5627,20 +3582,20 @@
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:26" ht="89.25" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -5649,8 +3604,8 @@
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5658,17 +3613,17 @@
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5676,64 +3631,64 @@
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:26" ht="33" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="51" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:26" ht="55.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="181.5">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:26" ht="88.5" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -5742,7 +3697,7 @@
       <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5750,237 +3705,48 @@
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="1" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -6907,36 +4673,9 @@
     <row r="972" ht="15.75" customHeight="1"/>
     <row r="973" ht="15.75" customHeight="1"/>
     <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A41" xr:uid="{53E32A5F-48B1-4B8B-AAAE-2A6C8CC37E42}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A14" xr:uid="{53E32A5F-48B1-4B8B-AAAE-2A6C8CC37E42}">
       <formula1>"SEO, ACCESSIBILITE,SEO &amp; ACCESSIBILITE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A10" xr:uid="{845A5C6F-6053-4F9E-8045-D34C9D645BF1}">
@@ -6956,12 +4695,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD81C4D3-3AE1-41D9-83C3-31C0A4451848}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6970,121 +4709,142 @@
     <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75">
-      <c r="A3" s="30" t="s">
+      <c r="C12" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="C13" s="36"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="39"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="39"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{BB02916E-15E5-4F5A-B685-4E951B8A882E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/La chouette.xlsx
+++ b/La chouette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projets_classrooms\projet4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8ADE92-868D-497D-AD48-DE224ADDE283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795EC450-0AD9-43E3-8D80-8C26DD47B8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="198">
   <si>
     <t>Catégorie</t>
   </si>
@@ -226,9 +226,6 @@
     <t>SSL Secure</t>
   </si>
   <si>
-    <t>Le nom de domaine free.fr Domain Authority est lent</t>
-  </si>
-  <si>
     <t>GZIP Compress inexistant</t>
   </si>
   <si>
@@ -976,32 +973,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Décidez si un CMS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Ubuntu1"/>
-      </rPr>
-      <t>est adapté : « entre un site custom ou un CMS »</t>
-    </r>
-  </si>
-  <si>
-    <t>Un CMS propose un design préconçu pour vous faciliter le travail. Wordpress est idéal pour la création de site vitrine avec blog, c'est-à-dire sans besoin métier directement sur le site.</t>
-  </si>
-  <si>
-    <t>Choisir un thème (et un « builder ») rapide. Installer les plugins nécessaires.</t>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Testez le rendering du votre site en version </t>
     </r>
     <r>
@@ -1386,12 +1357,6 @@
     <t>L'envoi d'un sitemap contribue à améliorer l'exploration des sites vastes ou complexes, ainsi que des fichiers très spécialisés.le site la chouette ne contien que deux pages</t>
   </si>
   <si>
-    <t xml:space="preserve">
-    Votre site est de taille modeste. En d'autres termes, votre site ne contient pas plus de 500 pages environ. Notez que seules les pages qui, selon vous, doivent figurer dans les résultats de recherche sont comptabilisées dans ce total.
-    Votre site relie toutes les pages entre elles. Autrement dit, Google n'aura qu'à suivre les liens depuis la page d'accueil pour identifier toutes les pages importantes.
-    Vous ne souhaitez pas indexer la plupart des fichiers multimédias (vidéo, image) ou des pages d'actualités. Les sitemaps peuvent aider Google à identifier et à comprendre des fichiers vidéo ou image, ainsi que des articles d'actualités sur votre site. Si vous n'avez pas besoin que vos pages figurent dans les résultats de recherche d'images, de vidéos ou d'actualités, l'envoi d'un sitemap n'est pas indispensable.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1586,6 +1551,124 @@
   </si>
   <si>
     <t>https://www.e-monsite.com/blog/referencement-seo/optimiser-url-seo.html</t>
+  </si>
+  <si>
+    <t>Votre site est de taille modeste. En d'autres termes, votre site ne contient pas plus de 500 pages environ. Notez que seules les pages qui, selon vous, doivent figurer dans les résultats de recherche sont comptabilisées dans ce total.
+    Votre site relie toutes les pages entre elles. Autrement dit, Google n'aura qu'à suivre les liens depuis la page d'accueil pour identifier toutes les pages importantes.
+    Vous ne souhaitez pas indexer la plupart des fichiers multimédias (vidéo, image) ou des pages d'actualités. Les sitemaps peuvent aider Google à identifier et à comprendre des fichiers vidéo ou image, ainsi que des articles d'actualités sur votre site. Si vous n'avez pas besoin que vos pages figurent dans les résultats de recherche d'images, de vidéos ou d'actualités, l'envoi d'un sitemap n'est pas indispensable.</t>
+  </si>
+  <si>
+    <t>Balises canoniques + Robots</t>
+  </si>
+  <si>
+    <t>Indiquer à Google la page principale à indexer et les autres pages a suivre avec la les balises ROBOTS et CANONICAL.</t>
+  </si>
+  <si>
+    <t>Utiliser pour le réf &lt;code&gt;&lt;meta name="robots" content="index, follow"&gt;&lt;/code&gt; + &lt;link rel="canonical" href="https://monsite.com/page" /&gt;</t>
+  </si>
+  <si>
+    <t>Répond aux attentes</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>Img Version Responsive : quelques bugs subsistent</t>
+  </si>
+  <si>
+    <t>L’image devrait s’adapter et se centrer automatiquement a son « container »</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>Adaptez et Compressez vos images les images à leur contenant.</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>La « code-base » n’est pas minifié.</t>
+  </si>
+  <si>
+    <t>Minifier un fichier signifie retirer les caractères inutiles (espaces, sauts de lignes, commentaires, séparateurs de bloc) de ce fichier, ce qui a pour incidence de diminuer drastiquement sa taille et donc son poids.</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>« /.hhhtaccess » absent, Il manque la balise G ZIP +</t>
+  </si>
+  <si>
+    <t>En compressant vos pages web et CSS avec G zip, vous pouvez réduire considérablement le temps de chargement de votre site.</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>Débloquez le téléchargement de vos pages,</t>
+  </si>
+  <si>
+    <t>Si vous ne paramétrez pas correctement l’appel à vos fichiers JavaScript, ils bloqueront l’affichage de la page jusqu’à ce qu’ils soient complètement chargés.</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>SEO &amp;  accessibilité</t>
+  </si>
+  <si>
+    <t>Hiérarchie de titres  :
+h1 h2 h3 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minifiez les fichiers CSS et JavaScript.
+</t>
+  </si>
+  <si>
+    <t>SEO &amp; accessibilité *(alternative output &amp; input) avec les technologies d'assistance (TA)</t>
+  </si>
+  <si>
+    <t>Exige des corrections mineures</t>
+  </si>
+  <si>
+    <t>#33</t>
+  </si>
+  <si>
+    <t>Si vos éléments ne peuvent pas être utilisés avec un clavier, les utilisateurs de la navigation alternative et des technologies d'assistance ne seront pas en mesure d'interagir avec votre contenu.</t>
+  </si>
+  <si>
+    <t>Exige des corrections majeures</t>
+  </si>
+  <si>
+    <t>#34</t>
+  </si>
+  <si>
+    <t>Affichage alternatif « output » : Eviter la présentation de textes sous forme d'image ; préférer les contrastes élevés ; différentiabilité de la Typographie ; lisibilité ; Apertures et contreformes ; Épaisseur de trait ; Espacement et rythme ; Interligne ; Longueur de ligne ; Contraste du texte ; Contraste hors texte ;</t>
+  </si>
+  <si>
+    <t>Les images de texte créent des obstacles à l'accessibilité dans un certain nombre de cas d'utilisation. Il n'est pas possible de changer la police de caractères si l'utilisateur a besoin d'une police spéciale ou d'un texte avec des traits plus épais, par exemple. Les utilisateurs ont recours à une grande variété de fonctionnalités de personnalisation et de technologies d'assistance (TA), pour interagir avec le contenu numérique conformément à leurs besoins.</t>
+  </si>
+  <si>
+    <t>La saisie alternative et l'affichage alternatif sont deux catégories générales de fonctionnalités et de TA importantes pour l'accessibilité numérique.</t>
+  </si>
+  <si>
+    <t>Rédaction web en prenant compte des impératifs « Web Content Accessibility Guidelines (WCAG) 2.0 »</t>
+  </si>
+  <si>
+    <t>Saisie alternative  « intput » Rendez les interactions sur le site accessibles.</t>
+  </si>
+  <si>
+    <t>Assurez-vous que le contenu prenne en charge l'interaction via le clavier en rendant tous les éléments utilisables via le clavier, en indiquant le focus et en respectant un ordre de focus logique.</t>
+  </si>
+  <si>
+    <t>Souvenez-vous que de nombreuses informations concernant les interactions sont communiquées visuellement, et prenez en charge les indications d'interaction visuelle par programmation grâce à l'utilisation du HTML sémantique et d'ARIA.</t>
+  </si>
+  <si>
+    <t>Veillez à la cohérence de la navigation dans le site et des éléments en termes de noms, de comportement et de présentation.</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +1886,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1907,13 +1990,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2035,6 +2140,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2042,262 +2172,6 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{CC00D98E-F00B-41A9-99C7-BFC240529EEE}"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7030A0"/>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color theme="2"/>
-        </left>
-        <right style="hair">
-          <color theme="2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color theme="2"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2474,6 +2348,262 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7030A0"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color theme="2"/>
+        </left>
+        <right style="hair">
+          <color theme="2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color theme="2"/>
+        </vertical>
+        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -2556,13 +2686,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4E80DCC7-F100-4372-8A24-127336D81AC3}" name="Tableau2" displayName="Tableau2" ref="A1:G21" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17">
-  <autoFilter ref="A1:G21" xr:uid="{4E80DCC7-F100-4372-8A24-127336D81AC3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4E80DCC7-F100-4372-8A24-127336D81AC3}" name="Tableau2" displayName="Tableau2" ref="A1:G34" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4">
+  <autoFilter ref="A1:G34" xr:uid="{4E80DCC7-F100-4372-8A24-127336D81AC3}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7651B9F4-5D1B-491F-9D06-8F7D40DBCE35}" name="Catégorie" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{BB3C842D-B90A-4B15-8AE2-F2C2C771A7C1}" name="Problème identifié" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{72E1F59A-7C52-436D-B3E2-9ABF09C2A8BF}" name="Explication du problème" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{024829AE-267C-41CC-B2B0-04BF5A4A7322}" name="Bonne pratique à adopter" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{7651B9F4-5D1B-491F-9D06-8F7D40DBCE35}" name="Catégorie" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{BB3C842D-B90A-4B15-8AE2-F2C2C771A7C1}" name="Problème identifié" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{72E1F59A-7C52-436D-B3E2-9ABF09C2A8BF}" name="Explication du problème" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{024829AE-267C-41CC-B2B0-04BF5A4A7322}" name="Bonne pratique à adopter" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{9E67441C-9738-4C6F-AB53-E9C1DB71E654}" name="Action recommandée"/>
     <tableColumn id="6" xr3:uid="{EF5A636B-EE40-49A6-A40B-AA1045E7E314}" name="Référence"/>
     <tableColumn id="7" xr3:uid="{E8272558-2D09-4761-B255-84AC0BE9637F}" name="Colonne1"/>
@@ -2572,26 +2702,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{19D63FCE-1F73-4AA6-A654-8B1C55CA6538}" name="Tableau1" displayName="Tableau1" ref="A1:F14" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{19D63FCE-1F73-4AA6-A654-8B1C55CA6538}" name="Tableau1" displayName="Tableau1" ref="A1:F13" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6765B98E-A599-4745-B90F-7DF2716C8EC6}" name="Catégorie" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{B295A182-FBEE-40F7-8D6A-6877CFC70D3B}" name="Problème identifié" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{2B6250E8-2653-44DC-9166-F85CF95BCABA}" name="Explication du problème" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{0B13FAAD-A12C-43A6-85DD-BDA4381DA87F}" name="Bonne pratique à adopter" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{6B1C6150-03C9-46C1-B80F-8817872C0197}" name="Action recommandée" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{80E29B63-CF02-4524-A4A5-4EA61BA67E64}" name="Référence" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{6765B98E-A599-4745-B90F-7DF2716C8EC6}" name="Catégorie" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{B295A182-FBEE-40F7-8D6A-6877CFC70D3B}" name="Problème identifié" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{2B6250E8-2653-44DC-9166-F85CF95BCABA}" name="Explication du problème" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{0B13FAAD-A12C-43A6-85DD-BDA4381DA87F}" name="Bonne pratique à adopter" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{6B1C6150-03C9-46C1-B80F-8817872C0197}" name="Action recommandée" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{80E29B63-CF02-4524-A4A5-4EA61BA67E64}" name="Référence" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76FA9334-1B29-46E1-8F52-3572F04FBE58}" name="Tableau4" displayName="Tableau4" ref="A3:C15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76FA9334-1B29-46E1-8F52-3572F04FBE58}" name="Tableau4" displayName="Tableau4" ref="A3:C15" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A3:C15" xr:uid="{76FA9334-1B29-46E1-8F52-3572F04FBE58}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9FD88FA0-C8C1-4F1F-B42F-6A030983F5DD}" name="Mes 10 actions d'optimisation ont étés les suivantes :" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{3B2A1ECC-CDEC-4360-A457-5C3E8B77D1E0}" name="actions" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{CF183673-C9C6-4667-A95C-6DAA3FED8A9F}" name="Colonne1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9FD88FA0-C8C1-4F1F-B42F-6A030983F5DD}" name="Mes 10 actions d'optimisation ont étés les suivantes :" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{3B2A1ECC-CDEC-4360-A457-5C3E8B77D1E0}" name="actions" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{CF183673-C9C6-4667-A95C-6DAA3FED8A9F}" name="Colonne1" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2856,15 +2986,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB75376-1288-4D31-B78F-1960835E0366}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.6640625" customWidth="1"/>
     <col min="4" max="4" width="34.21875" customWidth="1"/>
@@ -2893,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="62.25" thickTop="1">
@@ -2901,283 +3031,538 @@
         <v>11</v>
       </c>
       <c r="B2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>39</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="39"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="216.75" customHeight="1">
+      <c r="A3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>114</v>
+      </c>
       <c r="F3" s="40"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="23"/>
+      <c r="G3" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="195">
+      <c r="A4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>119</v>
+      </c>
       <c r="E4" s="39"/>
       <c r="F4" s="40"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="1:7" ht="216.75" customHeight="1">
+      <c r="G4" s="33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="78.75">
+      <c r="A5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="120">
+      <c r="A6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45">
       <c r="A7" s="25" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="195">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40.5">
       <c r="A8" s="25" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="78.75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="330">
       <c r="A9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>40</v>
+      <c r="B9" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="120">
+        <v>120</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="210">
       <c r="A10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>43</v>
+      <c r="B10" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="45">
+        <v>123</v>
+      </c>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" ht="255.75">
       <c r="A11" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>124</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30.75">
+        <v>125</v>
+      </c>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="137.25" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="210">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" ht="46.5">
       <c r="A14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>127</v>
+      <c r="B14" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="23"/>
-    </row>
-    <row r="15" spans="1:7" ht="255.75">
+        <v>55</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="182.25">
       <c r="A15" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="75">
+      <c r="A16" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="23"/>
-    </row>
-    <row r="16" spans="1:7" ht="75.75">
-      <c r="A16" s="25" t="s">
-        <v>11</v>
-      </c>
       <c r="B16" s="23" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="105">
       <c r="A17" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="23"/>
-    </row>
-    <row r="18" spans="1:4" ht="46.5">
+        <v>7</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="91.5">
       <c r="A18" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="182.25">
+        <v>10</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="375">
       <c r="A19" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>18</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="60">
+        <v>19</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20.25">
       <c r="A20" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="75">
+        <v>20</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="150.75">
       <c r="A21" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>66</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="60">
+      <c r="A22" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="60">
+      <c r="A23" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="50"/>
+    </row>
+    <row r="24" spans="1:7" ht="40.5">
+      <c r="A24" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45">
+      <c r="A25" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30">
+      <c r="A26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="75">
+      <c r="A27" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45">
+      <c r="A28" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60">
+      <c r="A29" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="150">
+      <c r="A30" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45">
+      <c r="A31" s="25"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="23"/>
+    </row>
+    <row r="32" spans="1:7" ht="141.75">
+      <c r="A32" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="105">
+      <c r="A33" s="25"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60">
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A19" xr:uid="{748BCFCD-42EF-4CD1-BB52-7435D3FCB63A}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A15 A17:A20" xr:uid="{748BCFCD-42EF-4CD1-BB52-7435D3FCB63A}">
       <formula1>"  SEO, ACCESSIBILITE,SEO &amp; ACCESSIBILITE"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21:A23" xr:uid="{AE74CB43-2621-4A84-8D6F-DB175983CADB}">
+      <formula1>"SEO, ACCESSIBILITE,SEO &amp; ACCESSIBILITE"</formula1>
+    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F19" r:id="rId1" location="pourquoi_balise_title_importante" xr:uid="{0E0A17E2-1F7E-4CFA-9348-CC1B91D6A0B0}"/>
+    <hyperlink ref="F17" r:id="rId2" xr:uid="{710DC566-1B38-4F86-AE33-9CC6388B81BC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3200,158 +3585,158 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75">
       <c r="B7" s="27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75">
       <c r="C8" s="28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75">
       <c r="C9" s="28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75">
       <c r="C10" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="23.25">
       <c r="A13" s="29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>78</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="23.25">
       <c r="A18" s="29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25">
       <c r="A19" s="31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75">
       <c r="B20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25">
       <c r="A21" s="31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" s="32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75">
       <c r="A24" s="32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75">
       <c r="A26" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75">
       <c r="A27" s="32" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="33" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="23.25">
       <c r="A31" s="34" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="23.25">
       <c r="A32" s="34" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75">
       <c r="A33" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75">
       <c r="A34" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3359,7 +3744,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3367,12 +3752,12 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="32" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3380,7 +3765,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3388,7 +3773,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3396,42 +3781,42 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="33" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="33" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.25">
       <c r="A51" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75">
       <c r="A52" s="32" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="B53" s="32" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="23.25">
       <c r="A55" s="34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="B56" s="30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3439,7 +3824,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="B82" s="38" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3447,12 +3832,12 @@
     </row>
     <row r="84" spans="1:2">
       <c r="B84" s="38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="17.25">
       <c r="A85" s="35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3472,10 +3857,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z974"/>
+  <dimension ref="A1:Z973"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A3" sqref="A3:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -3535,7 +3920,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -3552,13 +3937,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="11" t="s">
@@ -3583,7 +3968,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
@@ -3614,7 +3999,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>18</v>
@@ -3632,7 +4017,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -3660,64 +4045,54 @@
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:26" ht="55.5" customHeight="1">
+    <row r="11" spans="1:26" ht="181.5">
       <c r="A11" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:26" ht="181.5">
+    <row r="12" spans="1:26" ht="88.5" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:26" ht="88.5" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="75.75" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="75.75" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-    </row>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="16" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="17" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="20" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="21" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:1" ht="15.75" customHeight="1"/>
@@ -4672,14 +5047,13 @@
     <row r="971" ht="15.75" customHeight="1"/>
     <row r="972" ht="15.75" customHeight="1"/>
     <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A14" xr:uid="{53E32A5F-48B1-4B8B-AAAE-2A6C8CC37E42}">
-      <formula1>"SEO, ACCESSIBILITE,SEO &amp; ACCESSIBILITE"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A10" xr:uid="{845A5C6F-6053-4F9E-8045-D34C9D645BF1}">
       <formula1>"  SEO, ACCESSIBILITE,SEO &amp; ACCESSIBILITE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A13" xr:uid="{53E32A5F-48B1-4B8B-AAAE-2A6C8CC37E42}">
+      <formula1>"SEO, ACCESSIBILITE,SEO &amp; ACCESSIBILITE"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -4711,131 +5085,131 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="27" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="36" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>152</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="36" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="36" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="36" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="36" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="36" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="36" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="36" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="36" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="36" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B12" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="G12" t="s">
         <v>154</v>
-      </c>
-      <c r="G12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="36" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="36" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="36" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="36" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/La chouette.xlsx
+++ b/La chouette.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projets_classrooms\projet4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795EC450-0AD9-43E3-8D80-8C26DD47B8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A31EF5-194F-4BE3-87EF-5B5E89AAA757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diag" sheetId="2" r:id="rId1"/>
-    <sheet name="Crawlabilité " sheetId="5" r:id="rId2"/>
-    <sheet name="Diagnostic" sheetId="1" r:id="rId3"/>
-    <sheet name="Feuil1" sheetId="8" r:id="rId4"/>
+    <sheet name="Feuil2" sheetId="9" r:id="rId2"/>
+    <sheet name="Crawlabilité " sheetId="5" r:id="rId3"/>
+    <sheet name="Diagnostic" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="234">
   <si>
     <t>Catégorie</t>
   </si>
@@ -1669,13 +1670,179 @@
   </si>
   <si>
     <t>Veillez à la cohérence de la navigation dans le site et des éléments en termes de noms, de comportement et de présentation.</t>
+  </si>
+  <si>
+    <t>Champs formulaires requis</t>
+  </si>
+  <si>
+    <t>Ce que vous pouvez améliorer</t>
+  </si>
+  <si>
+    <t>Référencement (SEO) </t>
+  </si>
+  <si>
+    <t>0/100</t>
+  </si>
+  <si>
+    <t>La description de la page ne doit pas être vide</t>
+  </si>
+  <si>
+    <t>Utilisation de la description par les moteurs de recherche</t>
+  </si>
+  <si>
+    <t>Lorsqu'elle est bien configurée, la description de la page se retrouve directement dans les résultats de recherche:</t>
+  </si>
+  <si>
+    <t>Cette description vous permet de maîtriser au maximum l'affichage sur les résultats des moteurs de recherche, et d'améliorer le taux de clics vers votre page. En savoir plus.</t>
+  </si>
+  <si>
+    <t>Comment définir la description d'une page ?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La description de la page est renseignée grâce à la balise </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;meta name="description" content="description de la page"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, qui doit être placée dans la balise </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;head&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, au début du code.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La balise &lt;meta&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> de cette page est vide.</t>
+    </r>
+  </si>
+  <si>
+    <t>Le fichier robots.txt doit être défini</t>
+  </si>
+  <si>
+    <t>Facilitez au maximum la découverte de votre site par les robots en leur indiquant quelles URLs ne doivent pas être explorées.</t>
+  </si>
+  <si>
+    <t>Fichier robots.txt</t>
+  </si>
+  <si>
+    <t>Ce fichier est placé à la racine du site et est interprété par les robots en charge du référencement de votre site. Il délivre des instructions pour indiquer les pages à explorer par les robots.</t>
+  </si>
+  <si>
+    <t>Notez que ces instructions sont données à titre indicatives. Un robot quelconque ne sera pas bloqué par les restrictions du fichier.</t>
+  </si>
+  <si>
+    <t>Nous n'avons pas détecté de fichier robots.txt sur ce site, vous devriez le mettre en place à l'adresse suivante :</t>
+  </si>
+  <si>
+    <t>http://afellat.free.fr/robots.txt</t>
+  </si>
+  <si>
+    <t>3 images n'utilisent pas de format standard</t>
+  </si>
+  <si>
+    <t>Les images au format non standard risquent de ne pas être indexées par les moteurs de recherche.</t>
+  </si>
+  <si>
+    <t>Seuls certains formats d'images sont considérés comme standards sur le web : jpeg, jpg, png, gif, svg, ico, webp, avif. Vous devriez considérer une alternative à tout autre format.</t>
+  </si>
+  <si>
+    <t>Par ailleurs, pensez à soigner le texte entourant vos images: certains moteurs de recherche analysent les 10 mots (environ) précédents et suivants l'image, pour restituer son contexte.</t>
+  </si>
+  <si>
+    <t>Vous devriez reconsidérer le format des ressources suivantes :</t>
+  </si>
+  <si>
+    <t>http://afellat.free.fr/img/3.bmp</t>
+  </si>
+  <si>
+    <t>http://afellat.free.fr/img/4.bmp</t>
+  </si>
+  <si>
+    <t>http://afellat.free.fr/img/image-de-presentation.bmp</t>
+  </si>
+  <si>
+    <t>Votre page n'expose pas de propriété Open Graph</t>
+  </si>
+  <si>
+    <t>Vous pouvez aider les réseaux sociaux à comprendre votre page en utilisant les propriétés Open Graph.</t>
+  </si>
+  <si>
+    <t>Les propriétés de Open Graph</t>
+  </si>
+  <si>
+    <t>Plusieurs propriétés permettent aux réseaux sociaux d'en savoir plus sur le contenu de la page. Nous recommandons d'utiliser au moins les propriétés requises :</t>
+  </si>
+  <si>
+    <t>&lt;meta property="og:title" content="Le titre" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta property="og:type" content="Le type" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta property="og:url" content="http://url.com/" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta property="og:image" content="http://image.jpg" /&gt;</t>
+  </si>
+  <si>
+    <t>Ces informations permettent d'améliorer l’interprétation de la page par les réseaux sociaux, y compris Facebook. En savoir plus sur Open Graph.</t>
+  </si>
+  <si>
+    <t>Cette page ne fournit pas d'informations à destination des réseaux sociaux.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1865,6 +2032,13 @@
       <color rgb="FF111111"/>
       <name val="Ubuntu1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2018,7 +2192,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2164,6 +2338,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2988,8 +3168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB75376-1288-4D31-B78F-1960835E0366}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B47" sqref="B46:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3529,7 +3709,9 @@
     </row>
     <row r="33" spans="1:7" ht="105">
       <c r="A33" s="25"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="23" t="s">
+        <v>198</v>
+      </c>
       <c r="C33" s="24"/>
       <c r="D33" s="23" t="s">
         <v>196</v>
@@ -3568,6 +3750,266 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056EF87A-DE2A-4FE3-BEFC-417FD6D625A3}">
+  <dimension ref="A2:A103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:1" ht="17.25">
+      <c r="A2" s="35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75">
+      <c r="A8" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="16.5">
+      <c r="A25" s="32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="16.5">
+      <c r="A27" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="32"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75">
+      <c r="A36" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="52" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="36"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="32"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15.75">
+      <c r="A58" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="36"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="32"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15.75">
+      <c r="A80" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="52" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="36"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="53" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="36"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="53" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="36"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="53" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="36"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="32" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="32"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1" display="https://support.google.com/webmasters/answer/79812?hl=fr" xr:uid="{F7278961-9FFC-4548-BF51-6DF2EF180B8A}"/>
+    <hyperlink ref="A49" r:id="rId2" xr:uid="{8316354A-A64D-49E4-9AC4-4E8ACAF85266}"/>
+    <hyperlink ref="A97" r:id="rId3" display="http://ogp.me/" xr:uid="{C724CDBC-DEE4-4F54-A617-8E3740A24F97}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38A6FF8-3841-4440-8082-B0C06A228280}">
   <dimension ref="A1:E85"/>
   <sheetViews>
@@ -3855,7 +4297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z973"/>
   <sheetViews>
@@ -5069,7 +5511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD81C4D3-3AE1-41D9-83C3-31C0A4451848}">
   <dimension ref="A1:G15"/>
   <sheetViews>

--- a/La chouette.xlsx
+++ b/La chouette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projets_classrooms\projet4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72840CF-BC87-4C97-8560-02816034AD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6178FF-68FF-4305-B388-7722C43FCB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="208">
   <si>
     <t>Catégorie</t>
   </si>
@@ -1114,9 +1114,6 @@
   </si>
   <si>
     <t>Les images de texte créent des obstacles à l'accessibilité dans un certain nombre de cas d'utilisation. Il n'est pas possible de changer la police de caractères si l'utilisateur a besoin d'une police spéciale ou d'un texte avec des traits plus épais, par exemple. Les utilisateurs ont recours à une grande variété de fonctionnalités de personnalisation et de technologies d'assistance (TA), pour interagir avec le contenu numérique conformément à leurs besoins.</t>
-  </si>
-  <si>
-    <t>La saisie alternative et l'affichage alternatif sont deux catégories générales de fonctionnalités et de TA importantes pour l'accessibilité numérique.</t>
   </si>
   <si>
     <t>Rédaction web en prenant compte des impératifs « Web Content Accessibility Guidelines (WCAG) 2.0 »</t>
@@ -1580,6 +1577,30 @@
   </si>
   <si>
     <t xml:space="preserve">L’optimisation des balises opengraph permet d’améliorer la visibilité de votre site web sur les réseaux sociaux ce qui est très intéressant dans le cadre d'actualités ou d'articles de blog qui sont prévus pour le partage. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">insertion des </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>balises Opengraph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> en choisissant une image approppriée</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2702,7 +2723,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2744,10 +2765,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>25</v>
@@ -2770,13 +2791,13 @@
         <v>95</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F3" s="46" t="s">
         <v>5</v>
@@ -2790,22 +2811,22 @@
         <v>6</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>96</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="165">
@@ -2819,16 +2840,16 @@
         <v>27</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="255">
@@ -2839,13 +2860,13 @@
         <v>139</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>5</v>
@@ -2890,7 +2911,7 @@
         <v>97</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="210">
@@ -2919,7 +2940,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>5</v>
@@ -2978,7 +2999,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="105">
@@ -3008,7 +3029,7 @@
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
@@ -3100,7 +3121,7 @@
         <v>146</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E22" t="s">
         <v>140</v>
@@ -3109,14 +3130,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="45">
+    <row r="23" spans="1:7" ht="31.5">
       <c r="A23" s="42" t="s">
         <v>138</v>
       </c>
       <c r="B23" s="13"/>
-      <c r="C23" s="14" t="s">
-        <v>147</v>
-      </c>
+      <c r="C23" s="14"/>
       <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:7" ht="75">
@@ -3124,13 +3143,13 @@
         <v>138</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>142</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" t="s">
         <v>143</v>
@@ -3144,13 +3163,19 @@
         <v>138</v>
       </c>
       <c r="B25" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="E25" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>206</v>
+      <c r="F25" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="31.5">
@@ -3200,11 +3225,12 @@
     <hyperlink ref="F15" r:id="rId11" tooltip="Mobile fiendly" xr:uid="{58A775E8-3BA0-46B9-B21B-E7B99E5EB6CF}"/>
     <hyperlink ref="F17" r:id="rId12" tooltip="Liens hypertextes Alt et title" xr:uid="{F09A3F39-6393-4561-9184-EC99A1FF4C59}"/>
     <hyperlink ref="F19" r:id="rId13" tooltip="Gzip" xr:uid="{5F886B02-C95A-46F3-9DBC-18452C296A2A}"/>
+    <hyperlink ref="F25" r:id="rId14" tooltip="OpenGraph pour les réseau sociaux" xr:uid="{C406CA5A-1F17-4CA9-A953-57DAA6AE7380}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3663,22 +3689,22 @@
   <sheetData>
     <row r="2" spans="1:1" ht="17.25">
       <c r="A2" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75">
       <c r="A8" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -3688,32 +3714,32 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16.5">
       <c r="A25" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16.5">
       <c r="A27" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -3721,42 +3747,42 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75">
       <c r="A36" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -3764,7 +3790,7 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -3772,37 +3798,37 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75">
       <c r="A58" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:1">
@@ -3810,17 +3836,17 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:1">
@@ -3828,32 +3854,32 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15.75">
       <c r="A80" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -3861,7 +3887,7 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -3869,7 +3895,7 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -3877,7 +3903,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -3885,17 +3911,17 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" spans="1:1">

--- a/La chouette.xlsx
+++ b/La chouette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projets_classrooms\projet4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6178FF-68FF-4305-B388-7722C43FCB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28D17C6-16D4-4A62-8D8E-5CFB3FCD9814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="212">
   <si>
     <t>Catégorie</t>
   </si>
@@ -1601,6 +1601,18 @@
       </rPr>
       <t xml:space="preserve"> en choisissant une image approppriée</t>
     </r>
+  </si>
+  <si>
+    <t>Vérifier qu'il n'y a pas une majorité de liens « spammy »</t>
+  </si>
+  <si>
+    <t>En effet, si Google détecte que vous avez une majorité de mauvais liens, par exemple de liens créés automatiquement dans des commentaires de blogs, il pourra vous pénaliser, voire vous supprimer totalement de ses résultats de recherche.</t>
+  </si>
+  <si>
+    <t>Supprimer les mauvais liens</t>
+  </si>
+  <si>
+    <t>#29</t>
   </si>
 </sst>
 </file>
@@ -2080,73 +2092,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <name val="Ubuntu1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <name val="Ubuntu1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2235,6 +2180,9 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2300,6 +2248,70 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <name val="Ubuntu1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <name val="Ubuntu1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2426,12 +2438,12 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4E80DCC7-F100-4372-8A24-127336D81AC3}" name="Tableau2" displayName="Tableau2" ref="A1:G28" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7651B9F4-5D1B-491F-9D06-8F7D40DBCE35}" name="Catégorie" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{BB3C842D-B90A-4B15-8AE2-F2C2C771A7C1}" name="Problème identifié" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{72E1F59A-7C52-436D-B3E2-9ABF09C2A8BF}" name="Explication du problème" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{024829AE-267C-41CC-B2B0-04BF5A4A7322}" name="Bonne pratique à adopter" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{7651B9F4-5D1B-491F-9D06-8F7D40DBCE35}" name="Catégorie" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{BB3C842D-B90A-4B15-8AE2-F2C2C771A7C1}" name="Problème identifié" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{72E1F59A-7C52-436D-B3E2-9ABF09C2A8BF}" name="Explication du problème" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{024829AE-267C-41CC-B2B0-04BF5A4A7322}" name="Bonne pratique à adopter" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{9E67441C-9738-4C6F-AB53-E9C1DB71E654}" name="Action recommandée"/>
-    <tableColumn id="6" xr3:uid="{EF5A636B-EE40-49A6-A40B-AA1045E7E314}" name="Référence" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{EF5A636B-EE40-49A6-A40B-AA1045E7E314}" name="Référence" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{E8272558-2D09-4761-B255-84AC0BE9637F}" name="Colonne1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2439,12 +2451,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76FA9334-1B29-46E1-8F52-3572F04FBE58}" name="Tableau4" displayName="Tableau4" ref="A3:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76FA9334-1B29-46E1-8F52-3572F04FBE58}" name="Tableau4" displayName="Tableau4" ref="A3:C15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A3:C15" xr:uid="{76FA9334-1B29-46E1-8F52-3572F04FBE58}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9FD88FA0-C8C1-4F1F-B42F-6A030983F5DD}" name="Mes 10 actions d'optimisation ont étés les suivantes :" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{3B2A1ECC-CDEC-4360-A457-5C3E8B77D1E0}" name="actions" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{CF183673-C9C6-4667-A95C-6DAA3FED8A9F}" name="Colonne1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{9FD88FA0-C8C1-4F1F-B42F-6A030983F5DD}" name="Mes 10 actions d'optimisation ont étés les suivantes :" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{3B2A1ECC-CDEC-4360-A457-5C3E8B77D1E0}" name="actions" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{CF183673-C9C6-4667-A95C-6DAA3FED8A9F}" name="Colonne1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2723,7 +2735,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -3130,13 +3142,25 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.5">
+    <row r="23" spans="1:7" ht="75">
       <c r="A23" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="75">
       <c r="A24" s="42" t="s">

--- a/La chouette.xlsx
+++ b/La chouette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projets_classrooms\projet4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B92B4C0-99D7-4651-9404-AD264631096F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6608EA9-9523-4A5A-955D-AA5294D01A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="114">
   <si>
     <t>Catégorie</t>
   </si>
@@ -204,26 +204,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Img Version Responsive </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Ubuntu1"/>
-      </rPr>
-      <t>: quelques bugs subsistent</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">L’image devrait </t>
     </r>
     <r>
@@ -243,53 +223,6 @@
         <rFont val="Ubuntu1"/>
       </rPr>
       <t xml:space="preserve"> et se centrer automatiquement a son « container »</t>
-    </r>
-  </si>
-  <si>
-    <t>Régler ces derniers petits soucis de design, avec les mêmes contenus que Desktop.</t>
-  </si>
-  <si>
-    <t>Images trop grandes par rapport à leur contenant et non compressés.</t>
-  </si>
-  <si>
-    <t>Plus une image est grande, plus elle est lourde et donc longue à télécharger pour le navigateur.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Adaptez</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Ubuntu1"/>
-      </rPr>
-      <t xml:space="preserve"> et </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Compressez</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Ubuntu1"/>
-      </rPr>
-      <t xml:space="preserve"> vos images les images à leur contenant.</t>
     </r>
   </si>
   <si>
@@ -569,39 +502,9 @@
     <t>Accessibilité : optimiser les descriptions</t>
   </si>
   <si>
-    <t>https://cssminifier.com/</t>
-  </si>
-  <si>
     <t>Minifier css et bootstrap js</t>
   </si>
   <si>
-    <t>Activer le cache navigateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deflate ou le gzip </t>
-  </si>
-  <si>
-    <t>Htacces</t>
-  </si>
-  <si>
-    <t>htaccess</t>
-  </si>
-  <si>
-    <t>actions</t>
-  </si>
-  <si>
-    <t>Optimiser images</t>
-  </si>
-  <si>
-    <t>Insérer code analytique et seo</t>
-  </si>
-  <si>
-    <t>Sémantique SEO : la structure d'une page web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimiser les urls </t>
-  </si>
-  <si>
     <t>Balises canoniques + Robots</t>
   </si>
   <si>
@@ -615,10 +518,6 @@
   </si>
   <si>
     <t>SEO &amp;  accessibilité</t>
-  </si>
-  <si>
-    <t>Hiérarchie de titres  :
-h1 h2 h3 ...</t>
   </si>
   <si>
     <t>Si vos éléments ne peuvent pas être utilisés avec un clavier, les utilisateurs de la navigation alternative et des technologies d'assistance ne seront pas en mesure d'interagir avec votre contenu.</t>
@@ -1486,12 +1385,48 @@
     Une URL doit être SEO-friendly ou descriptive. Par SEO-friendly, nous entendons inclure des mots-clés dans l’URL, l’utilisation de lettres minuscules, des traits d’union pour séparer les mots, avoir une URL statique et limiter les dossiers dans la structure de l’URL.
 L’optimisation des URL vous aide également à éviter le contenu en double.</t>
   </si>
+  <si>
+    <t>Insérer code analytique</t>
+  </si>
+  <si>
+    <t>Mise en place Htaccess</t>
+  </si>
+  <si>
+    <t>Redimensionner les images à la taille ou elles vont s'affichée (gain de temps pour le navigateur, pas besoin de "réduire l'image une fois téléchargée")</t>
+  </si>
+  <si>
+    <t>Adaptez et Compressez vos images les images à leur contenant.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Img Version Responsive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Ubuntu1"/>
+      </rPr>
+      <t>: quelques bugs subsistent, Images trop grandes par rapport à leur contenant et non compressés.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hiérarchie de titres  :
+h1 h2 h3 ... Balise des titres, ordre non respecté</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1613,8 +1548,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1631,6 +1573,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1779,7 +1733,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1818,9 +1772,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1828,9 +1779,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1898,8 +1846,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1907,25 +1865,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{CC00D98E-F00B-41A9-99C7-BFC240529EEE}"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -2169,14 +2109,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4E80DCC7-F100-4372-8A24-127336D81AC3}" name="Tableau2" displayName="Tableau2" ref="A1:G24" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4E80DCC7-F100-4372-8A24-127336D81AC3}" name="Tableau2" displayName="Tableau2" ref="A1:G23" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7651B9F4-5D1B-491F-9D06-8F7D40DBCE35}" name="Catégorie" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{BB3C842D-B90A-4B15-8AE2-F2C2C771A7C1}" name="Problème identifié" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{72E1F59A-7C52-436D-B3E2-9ABF09C2A8BF}" name="Explication du problème" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{024829AE-267C-41CC-B2B0-04BF5A4A7322}" name="Bonne pratique à adopter" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{7651B9F4-5D1B-491F-9D06-8F7D40DBCE35}" name="Catégorie" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{BB3C842D-B90A-4B15-8AE2-F2C2C771A7C1}" name="Problème identifié" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{72E1F59A-7C52-436D-B3E2-9ABF09C2A8BF}" name="Explication du problème" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{024829AE-267C-41CC-B2B0-04BF5A4A7322}" name="Bonne pratique à adopter" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{9E67441C-9738-4C6F-AB53-E9C1DB71E654}" name="Action recommandée"/>
-    <tableColumn id="6" xr3:uid="{EF5A636B-EE40-49A6-A40B-AA1045E7E314}" name="Référence" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{EF5A636B-EE40-49A6-A40B-AA1045E7E314}" name="Référence" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{E8272558-2D09-4761-B255-84AC0BE9637F}" name="Colonne1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2184,13 +2124,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76FA9334-1B29-46E1-8F52-3572F04FBE58}" name="Tableau4" displayName="Tableau4" ref="A3:B15" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A3:B15" xr:uid="{76FA9334-1B29-46E1-8F52-3572F04FBE58}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9FD88FA0-C8C1-4F1F-B42F-6A030983F5DD}" name="Mes 10 actions d'optimisation ont étés les suivantes :" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{3B2A1ECC-CDEC-4360-A457-5C3E8B77D1E0}" name="actions" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76FA9334-1B29-46E1-8F52-3572F04FBE58}" name="Tableau4" displayName="Tableau4" ref="B3:B13" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="B3:B13" xr:uid="{76FA9334-1B29-46E1-8F52-3572F04FBE58}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{9FD88FA0-C8C1-4F1F-B42F-6A030983F5DD}" name="Mes 10 actions d'optimisation ont étés les suivantes :" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2467,16 +2406,16 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="30" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.6640625" customWidth="1"/>
     <col min="4" max="4" width="34.21875" customWidth="1"/>
@@ -2505,18 +2444,18 @@
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="62.25" thickTop="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>73</v>
+      <c r="B2" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>14</v>
@@ -2524,61 +2463,61 @@
       <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>35</v>
+      <c r="G2" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="195.75">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>36</v>
+      <c r="G3" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="210.75">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>72</v>
+      <c r="G4" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="165">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -2588,393 +2527,382 @@
         <v>16</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>71</v>
+      <c r="G5" s="18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="255">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>62</v>
+      <c r="B6" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:7" ht="75">
+      <c r="A7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="105">
+      <c r="A8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="210">
+      <c r="A9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="75.75">
+      <c r="A10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="59.25" customHeight="1">
-      <c r="A8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="105">
-      <c r="A9" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="210">
-      <c r="A10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>110</v>
+      <c r="D10" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="75.75">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:7" ht="212.25">
+      <c r="A11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="61.5">
+      <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="B12" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="212.25">
-      <c r="A12" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="61.5">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:7" ht="167.25">
+      <c r="A13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>113</v>
+      <c r="B13" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="167.25">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:7" ht="75">
+      <c r="A14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="105">
+      <c r="A15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="225">
+      <c r="A16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="75">
-      <c r="A15" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="105">
-      <c r="A16" s="19" t="s">
-        <v>7</v>
-      </c>
       <c r="B16" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="225">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:7" ht="273">
+      <c r="A17" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>123</v>
+        <v>11</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="273">
-      <c r="A18" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>11</v>
+    <row r="18" spans="1:7" ht="105.75">
+      <c r="A18" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" ht="150">
+      <c r="A19" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="75">
+      <c r="A20" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="86.25" customHeight="1">
+      <c r="A21" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="105">
+      <c r="A22" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="60" customHeight="1">
+      <c r="A23" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="37" t="s">
         <v>99</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="105.75">
-      <c r="A19" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="26"/>
-    </row>
-    <row r="20" spans="1:7" ht="150">
-      <c r="A20" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="75">
-      <c r="A21" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="86.25" customHeight="1">
-      <c r="A22" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="105">
-      <c r="A23" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="60" customHeight="1">
-      <c r="A24" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16:A18 A2:A14" xr:uid="{748BCFCD-42EF-4CD1-BB52-7435D3FCB63A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15:A17 A2:A13" xr:uid="{748BCFCD-42EF-4CD1-BB52-7435D3FCB63A}">
       <formula1>"  SEO, ACCESSIBILITE,SEO &amp; ACCESSIBILITE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19:A24" xr:uid="{AE74CB43-2621-4A84-8D6F-DB175983CADB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18:A23" xr:uid="{AE74CB43-2621-4A84-8D6F-DB175983CADB}">
       <formula1>"SEO, ACCESSIBILITE,SEO &amp; ACCESSIBILITE"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F18" r:id="rId1" location="pourquoi_balise_title_importante" xr:uid="{0E0A17E2-1F7E-4CFA-9348-CC1B91D6A0B0}"/>
-    <hyperlink ref="F16" r:id="rId2" tooltip="Test de vitesse sur le site" xr:uid="{710DC566-1B38-4F86-AE33-9CC6388B81BC}"/>
+    <hyperlink ref="F17" r:id="rId1" location="pourquoi_balise_title_importante" xr:uid="{0E0A17E2-1F7E-4CFA-9348-CC1B91D6A0B0}"/>
+    <hyperlink ref="F15" r:id="rId2" tooltip="Test de vitesse sur le site" xr:uid="{710DC566-1B38-4F86-AE33-9CC6388B81BC}"/>
     <hyperlink ref="F2" r:id="rId3" tooltip=" lang=&quot;Default&quot;" xr:uid="{2144687B-4B0A-473A-890E-E12549C51446}"/>
     <hyperlink ref="F3" r:id="rId4" tooltip="Les meta Description et title" xr:uid="{3851164E-E487-4387-B588-A3CA91682C76}"/>
     <hyperlink ref="F4" r:id="rId5" tooltip="Les meta Description et title" xr:uid="{DC907662-98A4-496E-9AE9-F0927A2612BE}"/>
     <hyperlink ref="F5" r:id="rId6" tooltip="Robts et Canonical " xr:uid="{05D41260-7924-4E7A-8A57-9B5FAF76636F}"/>
     <hyperlink ref="F6" r:id="rId7" tooltip="Hiérarchie de titres" xr:uid="{479C19A1-C5B0-4D40-A550-6484276C3DD1}"/>
-    <hyperlink ref="F10" r:id="rId8" location="2_Configurer_le_flux_de_donnees" tooltip="Google Analytics" xr:uid="{E191B057-5BE6-4597-9601-C09D858BB7B1}"/>
-    <hyperlink ref="F11" r:id="rId9" tooltip="Minifiez les fichiers CSS Bootstrap et JavaScript" xr:uid="{BB9FE53F-9617-4CBD-88DD-1D3F38AB8A2C}"/>
-    <hyperlink ref="F13" r:id="rId10" tooltip="htaccess" xr:uid="{14B123A3-9749-4711-B596-053739B51A10}"/>
-    <hyperlink ref="F15" r:id="rId11" tooltip="Mobile fiendly" xr:uid="{58A775E8-3BA0-46B9-B21B-E7B99E5EB6CF}"/>
-    <hyperlink ref="F17" r:id="rId12" tooltip="Liens hypertextes Alt et title" xr:uid="{F09A3F39-6393-4561-9184-EC99A1FF4C59}"/>
-    <hyperlink ref="F23" r:id="rId13" tooltip="OpenGraph pour les réseau sociaux" xr:uid="{C406CA5A-1F17-4CA9-A953-57DAA6AE7380}"/>
-    <hyperlink ref="F14" r:id="rId14" tooltip="Async &amp; defer" xr:uid="{B5EA731D-4FCC-463F-966C-D61B2CB6A81E}"/>
-    <hyperlink ref="F20" r:id="rId15" tooltip="WCAG" xr:uid="{31803655-7DF8-4E1E-850E-DCCA7B9D895D}"/>
+    <hyperlink ref="F9" r:id="rId8" location="2_Configurer_le_flux_de_donnees" tooltip="Google Analytics" xr:uid="{E191B057-5BE6-4597-9601-C09D858BB7B1}"/>
+    <hyperlink ref="F10" r:id="rId9" tooltip="Minifiez les fichiers CSS Bootstrap et JavaScript" xr:uid="{BB9FE53F-9617-4CBD-88DD-1D3F38AB8A2C}"/>
+    <hyperlink ref="F12" r:id="rId10" tooltip="htaccess" xr:uid="{14B123A3-9749-4711-B596-053739B51A10}"/>
+    <hyperlink ref="F14" r:id="rId11" tooltip="Mobile fiendly" xr:uid="{58A775E8-3BA0-46B9-B21B-E7B99E5EB6CF}"/>
+    <hyperlink ref="F16" r:id="rId12" tooltip="Liens hypertextes Alt et title" xr:uid="{F09A3F39-6393-4561-9184-EC99A1FF4C59}"/>
+    <hyperlink ref="F22" r:id="rId13" tooltip="OpenGraph pour les réseau sociaux" xr:uid="{C406CA5A-1F17-4CA9-A953-57DAA6AE7380}"/>
+    <hyperlink ref="F13" r:id="rId14" tooltip="Async &amp; defer" xr:uid="{B5EA731D-4FCC-463F-966C-D61B2CB6A81E}"/>
+    <hyperlink ref="F19" r:id="rId15" tooltip="WCAG" xr:uid="{31803655-7DF8-4E1E-850E-DCCA7B9D895D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId16"/>
@@ -2989,120 +2917,116 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.109375" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" ht="54.75" customHeight="1">
+      <c r="A1" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="42"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="43"/>
+      <c r="B3" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="40">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="40">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="40">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="40">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="40">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75">
-      <c r="A3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="16" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="40">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="16"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="16" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="40">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="16"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="16" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="40">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="16"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="16"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="16"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>50</v>
+      <c r="A12" s="40">
+        <v>9</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="16" t="s">
-        <v>49</v>
+      <c r="A13" s="41">
+        <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="16"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="16"/>
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{BB02916E-15E5-4F5A-B685-4E951B8A882E}"/>
-  </hyperlinks>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/La chouette.xlsx
+++ b/La chouette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projets_classrooms\projet4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6608EA9-9523-4A5A-955D-AA5294D01A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F07712F-C498-46DC-8CA7-50BF051F4265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="115">
   <si>
     <t>Catégorie</t>
   </si>
@@ -289,10 +289,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Joindre le fichier « /.hhhtaccess » a la racine pour Compressez les ressources.
-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -456,9 +452,6 @@
     </r>
   </si>
   <si>
-    <t>Colonne1</t>
-  </si>
-  <si>
     <t>&lt;html lang="fr"&gt;</t>
   </si>
   <si>
@@ -509,12 +502,6 @@
   </si>
   <si>
     <t>Utiliser pour le réf &lt;code&gt;&lt;meta name="robots" content="index, follow"&gt;&lt;/code&gt; + &lt;link rel="canonical" href="https://monsite.com/page" /&gt;</t>
-  </si>
-  <si>
-    <t>Répond aux attentes</t>
-  </si>
-  <si>
-    <t>#2</t>
   </si>
   <si>
     <t>SEO &amp;  accessibilité</t>
@@ -1202,26 +1189,6 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>« /.hhhtaccess »</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Ubuntu1"/>
-      </rPr>
-      <t>, les pages non zippées, le cache</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
         <color rgb="FF111111"/>
         <rFont val="Ubuntu1"/>
       </rPr>
@@ -1266,11 +1233,6 @@
   </si>
   <si>
     <t>Modification du formulaire et intégrer la validation</t>
-  </si>
-  <si>
-    <t>Validez vos données avec ARIA
-Indiquez qu’un champ est obligatoire
-Indiquez qu’un champ est invalide avec ARIA</t>
   </si>
   <si>
     <r>
@@ -1420,6 +1382,71 @@
   <si>
     <t>Hiérarchie de titres  :
 h1 h2 h3 ... Balise des titres, ordre non respecté</t>
+  </si>
+  <si>
+    <t>Se mettre dans la peau d’un internaute qui effectue une requête.
+Distinguer les besoins et enjeux de la requête</t>
+  </si>
+  <si>
+    <t>Rassurer les internautes avec un texte d’introduction
+Réduisez le nombre de champs du u formulaire
+Renseignez les coordonnées postales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validez les  données avec ARIA
+Indiquez qu’un champ est obligatoire
+Indiquez qu’un champ est invalide avec </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joindre le fichier « /.htaccess » a la racine pour Compressez les ressourceset mettre en cache pour une future visite
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>« /.htaccess »</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Ubuntu1"/>
+      </rPr>
+      <t>, les pages non zippées, le cache</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Intégrer un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.htaccess</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> à son site</t>
+    </r>
+  </si>
+  <si>
+    <t>Les réalisations</t>
   </si>
 </sst>
 </file>
@@ -1741,9 +1768,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1858,6 +1882,9 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2117,7 +2144,7 @@
     <tableColumn id="4" xr3:uid="{024829AE-267C-41CC-B2B0-04BF5A4A7322}" name="Bonne pratique à adopter" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{9E67441C-9738-4C6F-AB53-E9C1DB71E654}" name="Action recommandée"/>
     <tableColumn id="6" xr3:uid="{EF5A636B-EE40-49A6-A40B-AA1045E7E314}" name="Référence" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{E8272558-2D09-4761-B255-84AC0BE9637F}" name="Colonne1"/>
+    <tableColumn id="7" xr3:uid="{E8272558-2D09-4761-B255-84AC0BE9637F}" name="Les réalisations"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2408,14 +2435,14 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="29" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.6640625" customWidth="1"/>
     <col min="4" max="4" width="34.21875" customWidth="1"/>
@@ -2425,461 +2452,470 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="71.25" customHeight="1" thickBot="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="62.25" thickTop="1">
+      <c r="A2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="195.75">
+      <c r="A3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="62.25" thickTop="1">
-      <c r="A2" s="28" t="s">
+    <row r="4" spans="1:7" ht="210.75">
+      <c r="A4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="165">
+      <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="32" t="s">
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="195.75">
-      <c r="A3" s="17" t="s">
+      <c r="G5" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="255">
+      <c r="A6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75">
+      <c r="A7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="105">
+      <c r="A8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="210">
+      <c r="A9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="75.75">
+      <c r="A10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="212.25">
+      <c r="A11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="75">
+      <c r="A12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="167.25">
+      <c r="A13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="75">
+      <c r="A14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="33" t="s">
+      <c r="B14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="105">
+      <c r="A15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="210.75">
-      <c r="A4" s="17" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="225">
+      <c r="A16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="273">
+      <c r="A17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="105.75">
+      <c r="A18" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" ht="150">
+      <c r="A19" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="75">
+      <c r="A20" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="33" t="s">
+      <c r="B20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="86.25" customHeight="1">
+      <c r="A21" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="105">
+      <c r="A22" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="165">
-      <c r="A5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="255">
-      <c r="A6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="75">
-      <c r="A7" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="105">
-      <c r="A8" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="11" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="60" customHeight="1">
+      <c r="A23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="210">
-      <c r="A9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="39" t="s">
+      <c r="F23" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="75.75">
-      <c r="A10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="212.25">
-      <c r="A11" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="61.5">
-      <c r="A12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="167.25">
-      <c r="A13" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="75">
-      <c r="A14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="105">
-      <c r="A15" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="225">
-      <c r="A16" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="273">
-      <c r="A17" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="105.75">
-      <c r="A18" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="1:7" ht="150">
-      <c r="A19" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="75">
-      <c r="A20" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="86.25" customHeight="1">
-      <c r="A21" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="105">
-      <c r="A22" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="60" customHeight="1">
-      <c r="A23" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>99</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15:A17 A2:A13" xr:uid="{748BCFCD-42EF-4CD1-BB52-7435D3FCB63A}">
       <formula1>"  SEO, ACCESSIBILITE,SEO &amp; ACCESSIBILITE"</formula1>
     </dataValidation>
@@ -2903,11 +2939,13 @@
     <hyperlink ref="F22" r:id="rId13" tooltip="OpenGraph pour les réseau sociaux" xr:uid="{C406CA5A-1F17-4CA9-A953-57DAA6AE7380}"/>
     <hyperlink ref="F13" r:id="rId14" tooltip="Async &amp; defer" xr:uid="{B5EA731D-4FCC-463F-966C-D61B2CB6A81E}"/>
     <hyperlink ref="F19" r:id="rId15" tooltip="WCAG" xr:uid="{31803655-7DF8-4E1E-850E-DCCA7B9D895D}"/>
+    <hyperlink ref="F7" r:id="rId16" tooltip="Poids formats des images et Seo" xr:uid="{7CFBDAF0-8EBC-4B12-B581-D08275B49429}"/>
+    <hyperlink ref="F11" r:id="rId17" xr:uid="{5475612A-FAD0-478C-80E6-35054F01971C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId18"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2920,7 +2958,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2929,95 +2967,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="54.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="41"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="42"/>
+      <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="39">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="39">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="42"/>
-    </row>
-    <row r="3" spans="1:2" ht="15.75">
-      <c r="A3" s="43"/>
-      <c r="B3" s="13" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="39">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="40">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="39">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="39">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="39">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="39">
+        <v>7</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="40">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="40">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="40">
-        <v>4</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="40">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="40">
-        <v>6</v>
-      </c>
-      <c r="B9" s="15" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="39">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="40">
-        <v>7</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="40">
-        <v>8</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="40">
+      <c r="A12" s="39">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>109</v>
+      <c r="B12" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="41">
+      <c r="A13" s="40">
         <v>10</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>108</v>
+      <c r="B13" s="15" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
